--- a/data/pca/factorExposure/factorExposure_2018-11-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.07254069180347016</v>
+        <v>0.04753561379896006</v>
       </c>
       <c r="C2">
-        <v>0.05545619648561817</v>
+        <v>0.01234864065841215</v>
       </c>
       <c r="D2">
-        <v>-0.07234212532959455</v>
+        <v>-0.02762655273839968</v>
       </c>
       <c r="E2">
-        <v>-0.01290690819082469</v>
+        <v>-0.01970963149612275</v>
       </c>
       <c r="F2">
-        <v>0.1313192998077807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03258573366125483</v>
+      </c>
+      <c r="G2">
+        <v>-0.1088777500358316</v>
+      </c>
+      <c r="H2">
+        <v>0.07368346327349057</v>
+      </c>
+      <c r="I2">
+        <v>-0.1215295799673464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.198927583755175</v>
+        <v>0.1279019660522388</v>
       </c>
       <c r="C3">
-        <v>5.754818628799213e-05</v>
+        <v>-0.02255340624336398</v>
       </c>
       <c r="D3">
-        <v>-0.1327133690758876</v>
+        <v>-0.05277587479055582</v>
       </c>
       <c r="E3">
-        <v>-0.04587011737643302</v>
+        <v>-0.01529863329206293</v>
       </c>
       <c r="F3">
-        <v>0.3570631372610067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.009246494445862299</v>
+      </c>
+      <c r="G3">
+        <v>-0.3553627062271218</v>
+      </c>
+      <c r="H3">
+        <v>0.2428509528390471</v>
+      </c>
+      <c r="I3">
+        <v>-0.2604005405999094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.06539418946936709</v>
+        <v>0.0562599962360575</v>
       </c>
       <c r="C4">
-        <v>0.02877702843303821</v>
+        <v>0.004909944447893753</v>
       </c>
       <c r="D4">
-        <v>-0.05365192344779043</v>
+        <v>-0.04517226965273361</v>
       </c>
       <c r="E4">
-        <v>-0.05782730753372672</v>
+        <v>0.01306439865915216</v>
       </c>
       <c r="F4">
-        <v>0.06498031991824081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05359520211598427</v>
+      </c>
+      <c r="G4">
+        <v>-0.06309598023848867</v>
+      </c>
+      <c r="H4">
+        <v>0.02795488650686812</v>
+      </c>
+      <c r="I4">
+        <v>-0.06661633939541468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.006716383012852122</v>
+        <v>0.03218779684516673</v>
       </c>
       <c r="C6">
-        <v>0.002800060736528269</v>
+        <v>0.003585853777240217</v>
       </c>
       <c r="D6">
-        <v>-0.001874385481533273</v>
+        <v>-0.02234668678046693</v>
       </c>
       <c r="E6">
-        <v>0.004701446651718363</v>
+        <v>0.002079671619545684</v>
       </c>
       <c r="F6">
-        <v>-0.0002155306035603812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02145221866535374</v>
+      </c>
+      <c r="G6">
+        <v>-0.01310921048391639</v>
+      </c>
+      <c r="H6">
+        <v>-0.03746471022914542</v>
+      </c>
+      <c r="I6">
+        <v>0.001008745963562149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03245427591716788</v>
+        <v>0.02886001643811867</v>
       </c>
       <c r="C7">
-        <v>0.02277697185429423</v>
+        <v>0.003275004549584643</v>
       </c>
       <c r="D7">
-        <v>-0.04392328167898316</v>
+        <v>-0.01212630278031504</v>
       </c>
       <c r="E7">
-        <v>-0.01194411910781078</v>
+        <v>0.03357489176237502</v>
       </c>
       <c r="F7">
-        <v>0.06969400419532037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02645703513999055</v>
+      </c>
+      <c r="G7">
+        <v>-0.05275815756584693</v>
+      </c>
+      <c r="H7">
+        <v>0.04774482150454102</v>
+      </c>
+      <c r="I7">
+        <v>-0.02557550438247874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03734948114667971</v>
+        <v>0.01215113355207806</v>
       </c>
       <c r="C8">
-        <v>-0.0002442297289019901</v>
+        <v>-0.004665360355902535</v>
       </c>
       <c r="D8">
-        <v>-0.04318805718505745</v>
+        <v>-0.04136048208849531</v>
       </c>
       <c r="E8">
-        <v>-0.04835446384850132</v>
+        <v>0.009183878204804641</v>
       </c>
       <c r="F8">
-        <v>0.08574779174211353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01706900480575466</v>
+      </c>
+      <c r="G8">
+        <v>-0.06987595092581531</v>
+      </c>
+      <c r="H8">
+        <v>0.05736078891617434</v>
+      </c>
+      <c r="I8">
+        <v>-0.05900025048081951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05351493475749453</v>
+        <v>0.04481429339819827</v>
       </c>
       <c r="C9">
-        <v>0.02740272415125959</v>
+        <v>0.0003580839688753315</v>
       </c>
       <c r="D9">
-        <v>-0.03660753054238033</v>
+        <v>-0.03094158952178832</v>
       </c>
       <c r="E9">
-        <v>-0.06338282255320186</v>
+        <v>0.01416327134719732</v>
       </c>
       <c r="F9">
-        <v>0.06467805876387382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.03680753461287864</v>
+      </c>
+      <c r="G9">
+        <v>-0.07931004013491741</v>
+      </c>
+      <c r="H9">
+        <v>0.0303717034814696</v>
+      </c>
+      <c r="I9">
+        <v>-0.05642077661938606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03399736092254065</v>
+        <v>0.05684019231689619</v>
       </c>
       <c r="C10">
-        <v>0.07930985315522411</v>
+        <v>3.147160858330248e-05</v>
       </c>
       <c r="D10">
-        <v>0.1063067293441899</v>
+        <v>0.1650306365582413</v>
       </c>
       <c r="E10">
-        <v>0.1006409129091823</v>
+        <v>-0.01214888158725965</v>
       </c>
       <c r="F10">
-        <v>0.07203463871966796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04061901698741014</v>
+      </c>
+      <c r="G10">
+        <v>-0.04593128248426184</v>
+      </c>
+      <c r="H10">
+        <v>0.02888473152410029</v>
+      </c>
+      <c r="I10">
+        <v>-0.04040073210132693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04501081514963137</v>
+        <v>0.03381431256988205</v>
       </c>
       <c r="C11">
-        <v>0.005898145016270704</v>
+        <v>-0.01079539930818027</v>
       </c>
       <c r="D11">
-        <v>-0.03107639525609249</v>
+        <v>-0.03243914542706866</v>
       </c>
       <c r="E11">
-        <v>-0.0150335311310226</v>
+        <v>-0.00705297989602351</v>
       </c>
       <c r="F11">
-        <v>0.04152498326217723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01039735668046199</v>
+      </c>
+      <c r="G11">
+        <v>-0.04630619314889821</v>
+      </c>
+      <c r="H11">
+        <v>0.01055684194812689</v>
+      </c>
+      <c r="I11">
+        <v>-0.0354250501808549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04447120269435474</v>
+        <v>0.03837323061390902</v>
       </c>
       <c r="C12">
-        <v>0.007613658686823593</v>
+        <v>-0.007666844451794224</v>
       </c>
       <c r="D12">
-        <v>-0.02743277293389327</v>
+        <v>-0.03274483952120058</v>
       </c>
       <c r="E12">
-        <v>-0.03370000680980436</v>
+        <v>0.004265436633128124</v>
       </c>
       <c r="F12">
-        <v>0.02502355304529207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01862245787173301</v>
+      </c>
+      <c r="G12">
+        <v>-0.0162786767399335</v>
+      </c>
+      <c r="H12">
+        <v>0.006608479965960718</v>
+      </c>
+      <c r="I12">
+        <v>-0.01986779111585557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04848737880582317</v>
+        <v>0.03597902400651602</v>
       </c>
       <c r="C13">
-        <v>0.02161977512876682</v>
+        <v>0.01315497078785095</v>
       </c>
       <c r="D13">
-        <v>-0.05395175248002944</v>
+        <v>-0.02040480584704282</v>
       </c>
       <c r="E13">
-        <v>0.00947125519648663</v>
+        <v>-0.01974087546217076</v>
       </c>
       <c r="F13">
-        <v>0.1121353977697093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01315784754592934</v>
+      </c>
+      <c r="G13">
+        <v>-0.09094273667580498</v>
+      </c>
+      <c r="H13">
+        <v>0.03557405031939016</v>
+      </c>
+      <c r="I13">
+        <v>-0.08057364720476484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02359447874448247</v>
+        <v>0.02000502483785885</v>
       </c>
       <c r="C14">
-        <v>0.01765315646554068</v>
+        <v>0.0008087885718203716</v>
       </c>
       <c r="D14">
-        <v>-0.0408498273235629</v>
+        <v>-0.01482662525529941</v>
       </c>
       <c r="E14">
-        <v>-0.02646241207298908</v>
+        <v>0.00514684895775605</v>
       </c>
       <c r="F14">
-        <v>0.04092420525355796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02693703265616771</v>
+      </c>
+      <c r="G14">
+        <v>-0.04187355779539803</v>
+      </c>
+      <c r="H14">
+        <v>0.06796604362928355</v>
+      </c>
+      <c r="I14">
+        <v>-0.03012447979537931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03702024549596787</v>
+        <v>0.03190020568701841</v>
       </c>
       <c r="C16">
-        <v>0.006108619150682915</v>
+        <v>-0.01028541554874622</v>
       </c>
       <c r="D16">
-        <v>-0.02688282648666577</v>
+        <v>-0.03061822767552236</v>
       </c>
       <c r="E16">
-        <v>-0.01533918181780015</v>
+        <v>-0.001717556997385053</v>
       </c>
       <c r="F16">
-        <v>0.03076681402116159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01671059802080682</v>
+      </c>
+      <c r="G16">
+        <v>-0.03470825021713452</v>
+      </c>
+      <c r="H16">
+        <v>0.00953279220134084</v>
+      </c>
+      <c r="I16">
+        <v>-0.02894872751519828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05683139608708892</v>
+        <v>0.04173276081739623</v>
       </c>
       <c r="C19">
-        <v>-2.561026377788971e-05</v>
+        <v>0.0009501258133052359</v>
       </c>
       <c r="D19">
-        <v>-0.04315085215104036</v>
+        <v>-0.03611854374823347</v>
       </c>
       <c r="E19">
-        <v>-0.009488900547640096</v>
+        <v>-0.007312689346804385</v>
       </c>
       <c r="F19">
-        <v>0.07948277158747998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01808992358156901</v>
+      </c>
+      <c r="G19">
+        <v>-0.08631062083647477</v>
+      </c>
+      <c r="H19">
+        <v>0.04770552856522667</v>
+      </c>
+      <c r="I19">
+        <v>-0.07231596042571493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01547654831799699</v>
+        <v>0.01111286431221343</v>
       </c>
       <c r="C20">
-        <v>0.01136048761018806</v>
+        <v>0.005797288531044161</v>
       </c>
       <c r="D20">
-        <v>-0.04415397419615973</v>
+        <v>-0.02027125228947164</v>
       </c>
       <c r="E20">
-        <v>-0.03754009571342866</v>
+        <v>0.002470440759434726</v>
       </c>
       <c r="F20">
-        <v>0.05701406674766392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.0186810216207884</v>
+      </c>
+      <c r="G20">
+        <v>-0.05390822876497427</v>
+      </c>
+      <c r="H20">
+        <v>0.06219524839032407</v>
+      </c>
+      <c r="I20">
+        <v>-0.05263628169504605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01639046361092226</v>
+        <v>0.02418074156992745</v>
       </c>
       <c r="C21">
-        <v>-0.005400295105714869</v>
+        <v>0.009503452334338211</v>
       </c>
       <c r="D21">
-        <v>-0.03776781140680489</v>
+        <v>-0.01858037430160653</v>
       </c>
       <c r="E21">
-        <v>-0.01692397196532899</v>
+        <v>0.009925060527723921</v>
       </c>
       <c r="F21">
-        <v>0.09636389423269628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.005299093345531219</v>
+      </c>
+      <c r="G21">
+        <v>-0.07320414820012594</v>
+      </c>
+      <c r="H21">
+        <v>0.03437896719827306</v>
+      </c>
+      <c r="I21">
+        <v>-0.05946951800722856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03445417970791885</v>
+        <v>0.03035304866091644</v>
       </c>
       <c r="C24">
-        <v>0.006053929724786852</v>
+        <v>-0.006042870851191173</v>
       </c>
       <c r="D24">
-        <v>-0.02402494595404032</v>
+        <v>-0.02800335771918506</v>
       </c>
       <c r="E24">
-        <v>-0.01581415930725673</v>
+        <v>-0.001141491349703569</v>
       </c>
       <c r="F24">
-        <v>0.04067195296895192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01301332418569045</v>
+      </c>
+      <c r="G24">
+        <v>-0.03688749318306547</v>
+      </c>
+      <c r="H24">
+        <v>0.005913823541925493</v>
+      </c>
+      <c r="I24">
+        <v>-0.03404352974425685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03862510837886995</v>
+        <v>0.03984479549046505</v>
       </c>
       <c r="C25">
-        <v>0.006295783524944152</v>
+        <v>-0.002145604914272018</v>
       </c>
       <c r="D25">
-        <v>-0.02707960429689877</v>
+        <v>-0.0297808051615823</v>
       </c>
       <c r="E25">
-        <v>-0.02213994989497821</v>
+        <v>-0.0009798712963291702</v>
       </c>
       <c r="F25">
-        <v>0.04984587737984802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01620069897507547</v>
+      </c>
+      <c r="G25">
+        <v>-0.04518191873555778</v>
+      </c>
+      <c r="H25">
+        <v>0.0005377633636033176</v>
+      </c>
+      <c r="I25">
+        <v>-0.03573963274783615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01699652709992222</v>
+        <v>0.01434697699637119</v>
       </c>
       <c r="C26">
-        <v>-0.004305968881248038</v>
+        <v>0.02035572926712213</v>
       </c>
       <c r="D26">
-        <v>-0.05263268582911584</v>
+        <v>-0.0217699071251354</v>
       </c>
       <c r="E26">
-        <v>-0.00543331861044055</v>
+        <v>-0.006441641696555199</v>
       </c>
       <c r="F26">
-        <v>0.05276911413208024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002895457667929253</v>
+      </c>
+      <c r="G26">
+        <v>-0.05042860237488849</v>
+      </c>
+      <c r="H26">
+        <v>0.04162869650810549</v>
+      </c>
+      <c r="I26">
+        <v>-0.03738299789209489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1016480024186006</v>
+        <v>0.05416489389808715</v>
       </c>
       <c r="C27">
-        <v>0.04315858711001831</v>
+        <v>-0.01563522155869503</v>
       </c>
       <c r="D27">
-        <v>-0.03297248271285851</v>
+        <v>-0.01456212182646783</v>
       </c>
       <c r="E27">
-        <v>-0.03697814193052036</v>
+        <v>-0.001015774743533085</v>
       </c>
       <c r="F27">
-        <v>0.05763080197047846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02290995479497422</v>
+      </c>
+      <c r="G27">
+        <v>-0.04521897968501112</v>
+      </c>
+      <c r="H27">
+        <v>0.03584415789260047</v>
+      </c>
+      <c r="I27">
+        <v>-0.03369874919696467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04935825678379204</v>
+        <v>0.0845511540842792</v>
       </c>
       <c r="C28">
-        <v>0.09986088244864245</v>
+        <v>0.01002945671117651</v>
       </c>
       <c r="D28">
-        <v>0.179192662742104</v>
+        <v>0.2491215978058507</v>
       </c>
       <c r="E28">
-        <v>0.1439848531809764</v>
+        <v>-0.009878112982216731</v>
       </c>
       <c r="F28">
-        <v>0.04654801687179051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05779686936090882</v>
+      </c>
+      <c r="G28">
+        <v>-0.02294242571077134</v>
+      </c>
+      <c r="H28">
+        <v>0.04838653946815498</v>
+      </c>
+      <c r="I28">
+        <v>-0.04211053093304593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02361233847510636</v>
+        <v>0.02075534881370332</v>
       </c>
       <c r="C29">
-        <v>0.01278494573827601</v>
+        <v>0.0008825392357398623</v>
       </c>
       <c r="D29">
-        <v>-0.03852444475198865</v>
+        <v>-0.01626677798763422</v>
       </c>
       <c r="E29">
-        <v>-0.03774770657771356</v>
+        <v>0.007428021777665311</v>
       </c>
       <c r="F29">
-        <v>0.02650864624454322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02960679758025011</v>
+      </c>
+      <c r="G29">
+        <v>-0.03641785600391854</v>
+      </c>
+      <c r="H29">
+        <v>0.06768422084522464</v>
+      </c>
+      <c r="I29">
+        <v>-0.01897341464092682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09597494855752361</v>
+        <v>0.07709833135469685</v>
       </c>
       <c r="C30">
-        <v>0.05524748153538123</v>
+        <v>0.001269479585020072</v>
       </c>
       <c r="D30">
-        <v>-0.06555055679684796</v>
+        <v>-0.04982665238938796</v>
       </c>
       <c r="E30">
-        <v>-0.02322957959252104</v>
+        <v>-0.04555108149053012</v>
       </c>
       <c r="F30">
-        <v>0.09468443170819754</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05321586517523152</v>
+      </c>
+      <c r="G30">
+        <v>-0.09860984334685195</v>
+      </c>
+      <c r="H30">
+        <v>0.005964837144805418</v>
+      </c>
+      <c r="I30">
+        <v>-0.01735210383284655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06091246286811507</v>
+        <v>0.05561263119137425</v>
       </c>
       <c r="C31">
-        <v>0.0193412105629078</v>
+        <v>-0.01169172153175051</v>
       </c>
       <c r="D31">
-        <v>-0.03680809218119934</v>
+        <v>-0.01428295131136156</v>
       </c>
       <c r="E31">
-        <v>0.0247115821335765</v>
+        <v>-0.01091901674535458</v>
       </c>
       <c r="F31">
-        <v>0.007474003109423311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01431822611281632</v>
+      </c>
+      <c r="G31">
+        <v>-0.01463085304644382</v>
+      </c>
+      <c r="H31">
+        <v>0.0630750099432484</v>
+      </c>
+      <c r="I31">
+        <v>-0.04773285566029152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05019898992746802</v>
+        <v>0.02372483015910335</v>
       </c>
       <c r="C32">
-        <v>0.02101601284424993</v>
+        <v>-0.01639529713748623</v>
       </c>
       <c r="D32">
-        <v>-0.0491679926297612</v>
+        <v>-0.03201982728694374</v>
       </c>
       <c r="E32">
-        <v>-0.0403430644214414</v>
+        <v>0.01193409762284006</v>
       </c>
       <c r="F32">
-        <v>0.07006948608629981</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04459470529193192</v>
+      </c>
+      <c r="G32">
+        <v>-0.07814162135595441</v>
+      </c>
+      <c r="H32">
+        <v>0.008727024749849755</v>
+      </c>
+      <c r="I32">
+        <v>-0.05475158081459855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05290958881148268</v>
+        <v>0.04342167407347559</v>
       </c>
       <c r="C33">
-        <v>4.486516626572775e-05</v>
+        <v>-0.0007644266957279208</v>
       </c>
       <c r="D33">
-        <v>-0.07257207730368055</v>
+        <v>-0.04362837504519873</v>
       </c>
       <c r="E33">
-        <v>-0.01955170290269419</v>
+        <v>-0.0238220150762206</v>
       </c>
       <c r="F33">
-        <v>0.08874336585755323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.00687503127912184</v>
+      </c>
+      <c r="G33">
+        <v>-0.07682692892529401</v>
+      </c>
+      <c r="H33">
+        <v>0.05192881727994811</v>
+      </c>
+      <c r="I33">
+        <v>-0.05811047188920393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.03836010647735937</v>
+        <v>0.03349677761981594</v>
       </c>
       <c r="C34">
-        <v>0.01363802301339035</v>
+        <v>-0.01954970802645667</v>
       </c>
       <c r="D34">
-        <v>-0.03101228058684869</v>
+        <v>-0.02967751022188875</v>
       </c>
       <c r="E34">
-        <v>-0.02183860668173315</v>
+        <v>0.003545380168140334</v>
       </c>
       <c r="F34">
-        <v>0.04199491811406063</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02266018264375723</v>
+      </c>
+      <c r="G34">
+        <v>-0.0397541884413241</v>
+      </c>
+      <c r="H34">
+        <v>0.005654452777150914</v>
+      </c>
+      <c r="I34">
+        <v>-0.03458132252847641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01639744728688781</v>
+        <v>0.01828124799479737</v>
       </c>
       <c r="C36">
-        <v>0.01316595229695848</v>
+        <v>0.006570107364135169</v>
       </c>
       <c r="D36">
-        <v>-0.008552371563564577</v>
+        <v>0.001476848903038581</v>
       </c>
       <c r="E36">
-        <v>-0.007192558045985178</v>
+        <v>0.001609896019392773</v>
       </c>
       <c r="F36">
-        <v>0.03330533076290054</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.009936198206423285</v>
+      </c>
+      <c r="G36">
+        <v>-0.0333172757365369</v>
+      </c>
+      <c r="H36">
+        <v>0.0370131416334168</v>
+      </c>
+      <c r="I36">
+        <v>-0.02025896449653307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01007895435223706</v>
+        <v>0.01844788344901428</v>
       </c>
       <c r="C38">
-        <v>0.006506195428678729</v>
+        <v>-0.01409040960855686</v>
       </c>
       <c r="D38">
-        <v>0.01154315147752635</v>
+        <v>-0.001617369208650489</v>
       </c>
       <c r="E38">
-        <v>-0.003621748006807736</v>
+        <v>0.003368180410806701</v>
       </c>
       <c r="F38">
-        <v>0.03245815743174718</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001776878667343743</v>
+      </c>
+      <c r="G38">
+        <v>-0.04247241248604997</v>
+      </c>
+      <c r="H38">
+        <v>0.02370246697203967</v>
+      </c>
+      <c r="I38">
+        <v>-0.03133362893646012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05177315818359072</v>
+        <v>0.03898998957470481</v>
       </c>
       <c r="C39">
-        <v>0.01316816571516922</v>
+        <v>-0.008243704968841459</v>
       </c>
       <c r="D39">
-        <v>-0.04864511311550547</v>
+        <v>-0.05399489337468365</v>
       </c>
       <c r="E39">
-        <v>-0.01251118760866934</v>
+        <v>-0.007265195939867315</v>
       </c>
       <c r="F39">
-        <v>0.03702942850970756</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.02980765518402947</v>
+      </c>
+      <c r="G39">
+        <v>-0.05525429483421915</v>
+      </c>
+      <c r="H39">
+        <v>-0.003933147093749068</v>
+      </c>
+      <c r="I39">
+        <v>-0.03497837126359311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05417427023607412</v>
+        <v>0.04517363787773662</v>
       </c>
       <c r="C40">
-        <v>0.03604489602880508</v>
+        <v>-0.002499417412989467</v>
       </c>
       <c r="D40">
-        <v>-0.07999543907851199</v>
+        <v>-0.03789095714450062</v>
       </c>
       <c r="E40">
-        <v>0.002100658709224814</v>
+        <v>-0.0262777032486112</v>
       </c>
       <c r="F40">
-        <v>0.08187349637106928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0310184815479154</v>
+      </c>
+      <c r="G40">
+        <v>-0.07360887172559506</v>
+      </c>
+      <c r="H40">
+        <v>0.03687411139688709</v>
+      </c>
+      <c r="I40">
+        <v>-0.0940156178234349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01127879729668622</v>
+        <v>0.0003296107355596847</v>
       </c>
       <c r="C41">
-        <v>-0.005854281601703774</v>
+        <v>0.00324051088013097</v>
       </c>
       <c r="D41">
-        <v>-0.02412092501668081</v>
+        <v>-0.001600436076080404</v>
       </c>
       <c r="E41">
-        <v>-0.01982565511576542</v>
+        <v>0.0002123985404675649</v>
       </c>
       <c r="F41">
-        <v>0.002235347057158438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.003677988058878359</v>
+      </c>
+      <c r="G41">
+        <v>-0.007991470812450652</v>
+      </c>
+      <c r="H41">
+        <v>0.05795590864706789</v>
+      </c>
+      <c r="I41">
+        <v>-0.03537996630750753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3646037874005015</v>
+        <v>0.2490466460074802</v>
       </c>
       <c r="C42">
-        <v>-0.8683754277210407</v>
+        <v>0.07273448417526386</v>
       </c>
       <c r="D42">
-        <v>0.109602477449048</v>
+        <v>-0.3307912256312726</v>
       </c>
       <c r="E42">
-        <v>0.259254920082446</v>
+        <v>-0.04072446471359215</v>
       </c>
       <c r="F42">
-        <v>-0.04313372228634724</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8808465010547304</v>
+      </c>
+      <c r="G42">
+        <v>0.1382203987338129</v>
+      </c>
+      <c r="H42">
+        <v>-0.01195076533809314</v>
+      </c>
+      <c r="I42">
+        <v>-0.008970648953448032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01159515559619776</v>
+        <v>-0.0001981332945062726</v>
       </c>
       <c r="C43">
-        <v>-0.003089393803986857</v>
+        <v>0.007125290652782393</v>
       </c>
       <c r="D43">
-        <v>-0.02671447442218808</v>
+        <v>-0.0007915988126793679</v>
       </c>
       <c r="E43">
-        <v>-0.01105422287700388</v>
+        <v>-0.003317876262860454</v>
       </c>
       <c r="F43">
-        <v>0.02904859999441795</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.001245633952122903</v>
+      </c>
+      <c r="G43">
+        <v>-0.02082863729436434</v>
+      </c>
+      <c r="H43">
+        <v>0.05082699309308614</v>
+      </c>
+      <c r="I43">
+        <v>-0.02686657015427643</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03116349740576741</v>
+        <v>0.01581113944348076</v>
       </c>
       <c r="C44">
-        <v>0.002708617550265316</v>
+        <v>0.0009087541602127889</v>
       </c>
       <c r="D44">
-        <v>-0.05807384221635894</v>
+        <v>-0.0260166468584992</v>
       </c>
       <c r="E44">
-        <v>-0.0240143732080737</v>
+        <v>0.001320737055002513</v>
       </c>
       <c r="F44">
-        <v>0.1468676832298568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.004189678328567939</v>
+      </c>
+      <c r="G44">
+        <v>-0.1173715662006835</v>
+      </c>
+      <c r="H44">
+        <v>0.09480544075648978</v>
+      </c>
+      <c r="I44">
+        <v>-0.07345090139756071</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02533111241005608</v>
+        <v>0.02043682643328225</v>
       </c>
       <c r="C46">
-        <v>0.01105212048950824</v>
+        <v>0.003376537070098762</v>
       </c>
       <c r="D46">
-        <v>-0.05489492428709639</v>
+        <v>-0.03045335608057565</v>
       </c>
       <c r="E46">
-        <v>-0.02798196520277522</v>
+        <v>-0.005492702633194433</v>
       </c>
       <c r="F46">
-        <v>0.02359222356033253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03413612575352008</v>
+      </c>
+      <c r="G46">
+        <v>-0.04973231561370924</v>
+      </c>
+      <c r="H46">
+        <v>0.06795808526812255</v>
+      </c>
+      <c r="I46">
+        <v>-0.020036171792813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09267070763745669</v>
+        <v>0.08343612029658221</v>
       </c>
       <c r="C47">
-        <v>0.02928646764349786</v>
+        <v>-0.02722075656576006</v>
       </c>
       <c r="D47">
-        <v>-0.03465040898717904</v>
+        <v>-0.02325342927238742</v>
       </c>
       <c r="E47">
-        <v>-0.01753757567754864</v>
+        <v>-0.006723006238899477</v>
       </c>
       <c r="F47">
-        <v>-0.01697582090015123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02539895856443995</v>
+      </c>
+      <c r="G47">
+        <v>0.01644291436065557</v>
+      </c>
+      <c r="H47">
+        <v>0.07483105285850682</v>
+      </c>
+      <c r="I47">
+        <v>-0.0438842877307609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01230317922114938</v>
+        <v>0.01814190676731878</v>
       </c>
       <c r="C48">
-        <v>0.008747568157007814</v>
+        <v>-0.004352773551178727</v>
       </c>
       <c r="D48">
-        <v>-0.03132785657815007</v>
+        <v>-0.008963728023173741</v>
       </c>
       <c r="E48">
-        <v>-0.01503999901815722</v>
+        <v>-0.0009799508326391912</v>
       </c>
       <c r="F48">
-        <v>0.0450305628543149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01195950554487985</v>
+      </c>
+      <c r="G48">
+        <v>-0.03617571840186302</v>
+      </c>
+      <c r="H48">
+        <v>0.03367561259825153</v>
+      </c>
+      <c r="I48">
+        <v>-0.02204628477307007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09110540673086978</v>
+        <v>0.07926734882800537</v>
       </c>
       <c r="C50">
-        <v>0.009206705954769344</v>
+        <v>-0.02190161132031533</v>
       </c>
       <c r="D50">
-        <v>-0.04019275012731464</v>
+        <v>-0.03705569349792563</v>
       </c>
       <c r="E50">
-        <v>-0.005823716147891399</v>
+        <v>0.006069985685673367</v>
       </c>
       <c r="F50">
-        <v>-0.002396653429054422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0106334180235591</v>
+      </c>
+      <c r="G50">
+        <v>-0.01274688267222871</v>
+      </c>
+      <c r="H50">
+        <v>0.05793344023493154</v>
+      </c>
+      <c r="I50">
+        <v>0.01221387196654896</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04941016828544238</v>
+        <v>0.0258566262491661</v>
       </c>
       <c r="C51">
-        <v>0.00331995801783397</v>
+        <v>0.002407266352946108</v>
       </c>
       <c r="D51">
-        <v>-0.0267773933192699</v>
+        <v>0.008646612888358957</v>
       </c>
       <c r="E51">
-        <v>0.04162540302268937</v>
+        <v>-0.01158812062651531</v>
       </c>
       <c r="F51">
-        <v>0.106122941337781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0151847132028007</v>
+      </c>
+      <c r="G51">
+        <v>-0.08994183284879886</v>
+      </c>
+      <c r="H51">
+        <v>0.07868307209016757</v>
+      </c>
+      <c r="I51">
+        <v>-0.07453192339775422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1176768864506704</v>
+        <v>0.1105023524341348</v>
       </c>
       <c r="C53">
-        <v>0.03005351020376305</v>
+        <v>-0.03721991086835069</v>
       </c>
       <c r="D53">
-        <v>-0.06812122287993062</v>
+        <v>-0.05591075451518934</v>
       </c>
       <c r="E53">
-        <v>-0.02095909814403835</v>
+        <v>-0.007295305589327296</v>
       </c>
       <c r="F53">
-        <v>-0.07628768097006165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05252606054100377</v>
+      </c>
+      <c r="G53">
+        <v>0.05519037857268556</v>
+      </c>
+      <c r="H53">
+        <v>0.02679286193124579</v>
+      </c>
+      <c r="I53">
+        <v>-0.02736612792895267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02092084149261379</v>
+        <v>0.02091384872663284</v>
       </c>
       <c r="C54">
-        <v>0.02422822139338824</v>
+        <v>-0.008560035139356223</v>
       </c>
       <c r="D54">
-        <v>-0.02435183594761677</v>
+        <v>0.004943869204038807</v>
       </c>
       <c r="E54">
-        <v>-0.0194959316423017</v>
+        <v>0.002530453142173916</v>
       </c>
       <c r="F54">
-        <v>0.04692440474714959</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0224236261008243</v>
+      </c>
+      <c r="G54">
+        <v>-0.04266713118563489</v>
+      </c>
+      <c r="H54">
+        <v>0.07182791951114968</v>
+      </c>
+      <c r="I54">
+        <v>-0.02513917131898729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1011328307754258</v>
+        <v>0.09263845037869274</v>
       </c>
       <c r="C55">
-        <v>0.02737790417249925</v>
+        <v>-0.0336338141640087</v>
       </c>
       <c r="D55">
-        <v>-0.01628619044992636</v>
+        <v>-0.04709407026592509</v>
       </c>
       <c r="E55">
-        <v>-0.04520867718530312</v>
+        <v>0.007931030738010608</v>
       </c>
       <c r="F55">
-        <v>-0.06237971129120139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0411070333120967</v>
+      </c>
+      <c r="G55">
+        <v>0.04553717878229525</v>
+      </c>
+      <c r="H55">
+        <v>0.03749965275736996</v>
+      </c>
+      <c r="I55">
+        <v>0.003677679692646769</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1387408821320742</v>
+        <v>0.1454612267147015</v>
       </c>
       <c r="C56">
-        <v>0.06795530194942151</v>
+        <v>-0.0544424698334251</v>
       </c>
       <c r="D56">
-        <v>-0.04380449346210075</v>
+        <v>-0.05135487294618347</v>
       </c>
       <c r="E56">
-        <v>-0.0485481858237661</v>
+        <v>-0.002248147922902215</v>
       </c>
       <c r="F56">
-        <v>-0.1347015759978877</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07797055413028281</v>
+      </c>
+      <c r="G56">
+        <v>0.100761571872743</v>
+      </c>
+      <c r="H56">
+        <v>-0.007794275323729897</v>
+      </c>
+      <c r="I56">
+        <v>0.002262317792437654</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06020141196826904</v>
+        <v>0.05418841337138668</v>
       </c>
       <c r="C57">
-        <v>0.02044470867409091</v>
+        <v>0.008235845063548746</v>
       </c>
       <c r="D57">
-        <v>-0.04562108650294447</v>
+        <v>-0.02308088511867239</v>
       </c>
       <c r="E57">
-        <v>0.01089739757963211</v>
+        <v>-0.01884575874751789</v>
       </c>
       <c r="F57">
-        <v>0.07519438024192895</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.004579611654028345</v>
+      </c>
+      <c r="G57">
+        <v>-0.05879060702065957</v>
+      </c>
+      <c r="H57">
+        <v>0.02752444461204428</v>
+      </c>
+      <c r="I57">
+        <v>-0.04082012395099809</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2255606464044516</v>
+        <v>0.1791768105782654</v>
       </c>
       <c r="C58">
-        <v>0.05344625774118882</v>
+        <v>-0.04632155726165305</v>
       </c>
       <c r="D58">
-        <v>-0.1287978277948099</v>
+        <v>-0.08483807360102547</v>
       </c>
       <c r="E58">
-        <v>-0.008978270711217267</v>
+        <v>-0.1142461892254774</v>
       </c>
       <c r="F58">
-        <v>0.1930118639453034</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.01891935314845758</v>
+      </c>
+      <c r="G58">
+        <v>-0.4190864172978088</v>
+      </c>
+      <c r="H58">
+        <v>0.321021728593324</v>
+      </c>
+      <c r="I58">
+        <v>0.7169509337716126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.05316528873708281</v>
+        <v>0.08835179957831667</v>
       </c>
       <c r="C59">
-        <v>0.1183683919771186</v>
+        <v>0.00511093974569643</v>
       </c>
       <c r="D59">
-        <v>0.1264101350176164</v>
+        <v>0.2185077697999194</v>
       </c>
       <c r="E59">
-        <v>0.09181063747585416</v>
+        <v>-0.02641899558192378</v>
       </c>
       <c r="F59">
-        <v>0.03394341318151252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.02111294742228462</v>
+      </c>
+      <c r="G59">
+        <v>-0.04676794619443703</v>
+      </c>
+      <c r="H59">
+        <v>0.01223540316787212</v>
+      </c>
+      <c r="I59">
+        <v>-0.02578509217200366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1700227857071722</v>
+        <v>0.1880248297191067</v>
       </c>
       <c r="C60">
-        <v>0.08465006561403869</v>
+        <v>-0.02688330604431891</v>
       </c>
       <c r="D60">
-        <v>-0.01589102178838188</v>
+        <v>0.03406082540515509</v>
       </c>
       <c r="E60">
-        <v>0.08360923700751102</v>
+        <v>-0.06934552402984026</v>
       </c>
       <c r="F60">
-        <v>0.1541367484664293</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.02518662573833146</v>
+      </c>
+      <c r="G60">
+        <v>-0.1978201264940112</v>
+      </c>
+      <c r="H60">
+        <v>-0.3651832575296409</v>
+      </c>
+      <c r="I60">
+        <v>-0.06716488016943606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03232747648803814</v>
+        <v>0.03330184027844914</v>
       </c>
       <c r="C61">
-        <v>0.0103142859974723</v>
+        <v>-0.01003094025920107</v>
       </c>
       <c r="D61">
-        <v>-0.01910849688308722</v>
+        <v>-0.03365290369698341</v>
       </c>
       <c r="E61">
-        <v>-0.01810348073099946</v>
+        <v>-0.0006547016181462248</v>
       </c>
       <c r="F61">
-        <v>0.03582557206677911</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02332116931648306</v>
+      </c>
+      <c r="G61">
+        <v>-0.04132555340212772</v>
+      </c>
+      <c r="H61">
+        <v>-0.01147554635726686</v>
+      </c>
+      <c r="I61">
+        <v>-0.02384080039249688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.02347275076760582</v>
+        <v>0.02145271192772371</v>
       </c>
       <c r="C63">
-        <v>0.02044204263550639</v>
+        <v>0.0002305777694773687</v>
       </c>
       <c r="D63">
-        <v>-0.04807420985735484</v>
+        <v>-0.02419106943406862</v>
       </c>
       <c r="E63">
-        <v>-0.02680515322527208</v>
+        <v>-0.001964813713104981</v>
       </c>
       <c r="F63">
-        <v>0.03865639226595742</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.0220164368948364</v>
+      </c>
+      <c r="G63">
+        <v>-0.0326928950219355</v>
+      </c>
+      <c r="H63">
+        <v>0.05504899749840347</v>
+      </c>
+      <c r="I63">
+        <v>-0.02225790399097539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05138139409633388</v>
+        <v>0.04913393895577926</v>
       </c>
       <c r="C64">
-        <v>0.009294137235958868</v>
+        <v>-0.01245067700335258</v>
       </c>
       <c r="D64">
-        <v>-0.04394025368630553</v>
+        <v>-0.04255181957662323</v>
       </c>
       <c r="E64">
-        <v>-0.06193145539338556</v>
+        <v>0.007709850185934802</v>
       </c>
       <c r="F64">
-        <v>0.06030010756548752</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02531449961552335</v>
+      </c>
+      <c r="G64">
+        <v>-0.04082218753158669</v>
+      </c>
+      <c r="H64">
+        <v>0.03478788906401625</v>
+      </c>
+      <c r="I64">
+        <v>-0.078102709998022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.006297802614455212</v>
+        <v>0.03772607105832507</v>
       </c>
       <c r="C65">
-        <v>0.001835548325847633</v>
+        <v>0.003770761241185698</v>
       </c>
       <c r="D65">
-        <v>-0.001022668815573487</v>
+        <v>-0.02373522520874335</v>
       </c>
       <c r="E65">
-        <v>0.005562191995840671</v>
+        <v>0.002002335021638772</v>
       </c>
       <c r="F65">
-        <v>0.0007030483847362264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02261481621303606</v>
+      </c>
+      <c r="G65">
+        <v>-0.007470285716816901</v>
+      </c>
+      <c r="H65">
+        <v>-0.04398017201521246</v>
+      </c>
+      <c r="I65">
+        <v>-0.002225912836638079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.05003190301166362</v>
+        <v>0.04789159308814027</v>
       </c>
       <c r="C66">
-        <v>0.02683421604445401</v>
+        <v>-0.01196368742803454</v>
       </c>
       <c r="D66">
-        <v>-0.05921723804326563</v>
+        <v>-0.0607087286587823</v>
       </c>
       <c r="E66">
-        <v>-0.03085677308300641</v>
+        <v>-0.01510944917360946</v>
       </c>
       <c r="F66">
-        <v>0.082360575866557</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.0551012798536766</v>
+      </c>
+      <c r="G66">
+        <v>-0.06646401630090656</v>
+      </c>
+      <c r="H66">
+        <v>-0.01800797869089406</v>
+      </c>
+      <c r="I66">
+        <v>-0.04910062758415569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02749961883047581</v>
+        <v>0.03652214984425988</v>
       </c>
       <c r="C67">
-        <v>0.01746642294326922</v>
+        <v>-0.01400368699272327</v>
       </c>
       <c r="D67">
-        <v>0.02354643185214848</v>
+        <v>0.01009345104033579</v>
       </c>
       <c r="E67">
-        <v>0.01320654090124869</v>
+        <v>-0.001454245378887945</v>
       </c>
       <c r="F67">
-        <v>0.03895607005809748</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.004894647909755408</v>
+      </c>
+      <c r="G67">
+        <v>-0.03602645662470624</v>
+      </c>
+      <c r="H67">
+        <v>0.005189513792462363</v>
+      </c>
+      <c r="I67">
+        <v>-0.04523821041233161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06116077914991833</v>
+        <v>0.09104187887626365</v>
       </c>
       <c r="C68">
-        <v>0.1097914539886812</v>
+        <v>0.02583218342565025</v>
       </c>
       <c r="D68">
-        <v>0.1829703106227263</v>
+        <v>0.2394672694630932</v>
       </c>
       <c r="E68">
-        <v>0.1360800302309267</v>
+        <v>-0.01994711895855488</v>
       </c>
       <c r="F68">
-        <v>-0.01567989639347058</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04894714361172667</v>
+      </c>
+      <c r="G68">
+        <v>-0.001506724900015138</v>
+      </c>
+      <c r="H68">
+        <v>0.04007861656601639</v>
+      </c>
+      <c r="I68">
+        <v>0.04798065017569359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07482865110609004</v>
+        <v>0.06806813902037999</v>
       </c>
       <c r="C69">
-        <v>0.0333159463273635</v>
+        <v>-0.0257462702105859</v>
       </c>
       <c r="D69">
-        <v>-0.0204291326434856</v>
+        <v>-0.01523595915210101</v>
       </c>
       <c r="E69">
-        <v>0.004752933800731106</v>
+        <v>-0.009757757614795338</v>
       </c>
       <c r="F69">
-        <v>-0.0008804055717914534</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02401614058243158</v>
+      </c>
+      <c r="G69">
+        <v>-0.001356393029614384</v>
+      </c>
+      <c r="H69">
+        <v>0.04974820887484932</v>
+      </c>
+      <c r="I69">
+        <v>-0.04327644162254419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.05961894011469927</v>
+        <v>0.08885277853083197</v>
       </c>
       <c r="C71">
-        <v>0.12939874699697</v>
+        <v>0.01646668217972875</v>
       </c>
       <c r="D71">
-        <v>0.2243159111967155</v>
+        <v>0.2590382302951066</v>
       </c>
       <c r="E71">
-        <v>0.2209820848974475</v>
+        <v>-0.02611159846369425</v>
       </c>
       <c r="F71">
-        <v>0.04665663621832825</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06966427422145238</v>
+      </c>
+      <c r="G71">
+        <v>-0.02068697760459661</v>
+      </c>
+      <c r="H71">
+        <v>0.01729139934927719</v>
+      </c>
+      <c r="I71">
+        <v>-0.001149465579412582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1250156910857846</v>
+        <v>0.1259847368204588</v>
       </c>
       <c r="C72">
-        <v>0.09212900364501092</v>
+        <v>-0.05277538274133373</v>
       </c>
       <c r="D72">
-        <v>-0.05103115918581436</v>
+        <v>-0.05221043118270752</v>
       </c>
       <c r="E72">
-        <v>-0.03457369605800944</v>
+        <v>-0.02212100574789175</v>
       </c>
       <c r="F72">
-        <v>0.01366808476379549</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0950424989280205</v>
+      </c>
+      <c r="G72">
+        <v>-0.1096198128358832</v>
+      </c>
+      <c r="H72">
+        <v>-0.0840947453475778</v>
+      </c>
+      <c r="I72">
+        <v>0.05861200012282541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2477785631116916</v>
+        <v>0.2600905442102662</v>
       </c>
       <c r="C73">
-        <v>0.1248506060106548</v>
+        <v>-0.04160498236818756</v>
       </c>
       <c r="D73">
-        <v>0.02939936844073458</v>
+        <v>0.02650194576193301</v>
       </c>
       <c r="E73">
-        <v>0.1279386970977668</v>
+        <v>-0.1038991467142425</v>
       </c>
       <c r="F73">
-        <v>0.2942387523124307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.005752479226369524</v>
+      </c>
+      <c r="G73">
+        <v>-0.2693440804024659</v>
+      </c>
+      <c r="H73">
+        <v>-0.540801960015423</v>
+      </c>
+      <c r="I73">
+        <v>-0.002273639091785928</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1297615955155961</v>
+        <v>0.1338312621342453</v>
       </c>
       <c r="C74">
-        <v>0.03187282803634703</v>
+        <v>-0.04884383773956657</v>
       </c>
       <c r="D74">
-        <v>-0.03656641123864865</v>
+        <v>-0.05340051215652594</v>
       </c>
       <c r="E74">
-        <v>-0.02324290510341156</v>
+        <v>-0.01053326215878635</v>
       </c>
       <c r="F74">
-        <v>-0.1077922811506282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05291499839754167</v>
+      </c>
+      <c r="G74">
+        <v>0.08658392269882124</v>
+      </c>
+      <c r="H74">
+        <v>-0.009755511170384725</v>
+      </c>
+      <c r="I74">
+        <v>-0.04512776793039183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2193806014015017</v>
+        <v>0.2461227582805987</v>
       </c>
       <c r="C75">
-        <v>0.1011091175336313</v>
+        <v>-0.09398536879976406</v>
       </c>
       <c r="D75">
-        <v>-0.08685861862797653</v>
+        <v>-0.06862888099369424</v>
       </c>
       <c r="E75">
-        <v>-0.02678437327038839</v>
+        <v>-0.03461075797043061</v>
       </c>
       <c r="F75">
-        <v>-0.1764604389680396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1291787065107926</v>
+      </c>
+      <c r="G75">
+        <v>0.1659500861197086</v>
+      </c>
+      <c r="H75">
+        <v>0.01296736098740571</v>
+      </c>
+      <c r="I75">
+        <v>-0.008130830459406014</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2389609302895329</v>
+        <v>0.2392417996208059</v>
       </c>
       <c r="C76">
-        <v>0.1140224321924939</v>
+        <v>-0.09360124312693528</v>
       </c>
       <c r="D76">
-        <v>-0.02692678158844973</v>
+        <v>-0.06054930893535946</v>
       </c>
       <c r="E76">
-        <v>-0.07740317861841298</v>
+        <v>0.009441186117110565</v>
       </c>
       <c r="F76">
-        <v>-0.1994367419910448</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1378884788474791</v>
+      </c>
+      <c r="G76">
+        <v>0.1867466277487959</v>
+      </c>
+      <c r="H76">
+        <v>0.02564087148820528</v>
+      </c>
+      <c r="I76">
+        <v>0.03868097141099563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1575900836547303</v>
+        <v>0.1046597159143609</v>
       </c>
       <c r="C77">
-        <v>-0.01889520666687477</v>
+        <v>-0.01259080317353673</v>
       </c>
       <c r="D77">
-        <v>-0.07668780225910696</v>
+        <v>-0.07912866416932496</v>
       </c>
       <c r="E77">
-        <v>-0.0008720613230575824</v>
+        <v>-0.01608362437563043</v>
       </c>
       <c r="F77">
-        <v>0.2133153612523922</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03525920851542195</v>
+      </c>
+      <c r="G77">
+        <v>-0.1451880913628757</v>
+      </c>
+      <c r="H77">
+        <v>0.1929159088668612</v>
+      </c>
+      <c r="I77">
+        <v>-0.04741647771663215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08283227308984684</v>
+        <v>0.0578680305916501</v>
       </c>
       <c r="C78">
-        <v>-0.00636645748071807</v>
+        <v>-0.0130999524610895</v>
       </c>
       <c r="D78">
-        <v>-0.07678770949894774</v>
+        <v>-0.06417720009489961</v>
       </c>
       <c r="E78">
-        <v>-0.05339001166912773</v>
+        <v>-0.001235748171117248</v>
       </c>
       <c r="F78">
-        <v>0.04759727780124481</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03124366133947962</v>
+      </c>
+      <c r="G78">
+        <v>-0.07510189851161082</v>
+      </c>
+      <c r="H78">
+        <v>0.02769493547332534</v>
+      </c>
+      <c r="I78">
+        <v>-0.03861796208635731</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1595278532041041</v>
+        <v>0.1775774796477686</v>
       </c>
       <c r="C80">
-        <v>-0.0967605505495638</v>
+        <v>-0.03240667535418806</v>
       </c>
       <c r="D80">
-        <v>0.5961081936412813</v>
+        <v>0.03861313873794107</v>
       </c>
       <c r="E80">
-        <v>-0.7499348856262852</v>
+        <v>0.9670690345023699</v>
       </c>
       <c r="F80">
-        <v>0.1378043303463134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.0367380793594916</v>
+      </c>
+      <c r="G80">
+        <v>-0.09659824176886297</v>
+      </c>
+      <c r="H80">
+        <v>-0.03176258527113947</v>
+      </c>
+      <c r="I80">
+        <v>0.02763602310150553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1681055802359919</v>
+        <v>0.1801777494062069</v>
       </c>
       <c r="C81">
-        <v>0.08115370162321642</v>
+        <v>-0.06705800805829357</v>
       </c>
       <c r="D81">
-        <v>-0.04939607332033677</v>
+        <v>-0.04825690846582673</v>
       </c>
       <c r="E81">
-        <v>-0.03201949612479885</v>
+        <v>-0.01226981230379328</v>
       </c>
       <c r="F81">
-        <v>-0.1811592875274405</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09849838881371432</v>
+      </c>
+      <c r="G81">
+        <v>0.1227103937999833</v>
+      </c>
+      <c r="H81">
+        <v>0.01873641490920121</v>
+      </c>
+      <c r="I81">
+        <v>0.03552081112075196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.05842168777456783</v>
+        <v>0.04331914741143356</v>
       </c>
       <c r="C83">
-        <v>-0.03729194726071042</v>
+        <v>-0.008204023458509116</v>
       </c>
       <c r="D83">
-        <v>-0.06555073170218674</v>
+        <v>-0.04048294594822477</v>
       </c>
       <c r="E83">
-        <v>-0.01331614752385582</v>
+        <v>-0.01225562624475804</v>
       </c>
       <c r="F83">
-        <v>0.05464550727367169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01382113453914804</v>
+      </c>
+      <c r="G83">
+        <v>-0.0551715643940638</v>
+      </c>
+      <c r="H83">
+        <v>0.03916090428970515</v>
+      </c>
+      <c r="I83">
+        <v>-0.04872878089060361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2151369356785829</v>
+        <v>0.2314035750320063</v>
       </c>
       <c r="C85">
-        <v>0.06181127836205897</v>
+        <v>-0.07836565638104083</v>
       </c>
       <c r="D85">
-        <v>-0.0691541994216657</v>
+        <v>-0.0984396395039311</v>
       </c>
       <c r="E85">
-        <v>-0.07427861446851178</v>
+        <v>-0.01810530856690957</v>
       </c>
       <c r="F85">
-        <v>-0.2361517736707933</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1188220268138943</v>
+      </c>
+      <c r="G85">
+        <v>0.186413635348933</v>
+      </c>
+      <c r="H85">
+        <v>0.02621378520744457</v>
+      </c>
+      <c r="I85">
+        <v>0.009779377761496672</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02365186062602295</v>
+        <v>0.01474881899049086</v>
       </c>
       <c r="C86">
-        <v>-0.006669070389710052</v>
+        <v>0.004926722494092393</v>
       </c>
       <c r="D86">
-        <v>-0.06043234354384573</v>
+        <v>-0.03609767830564695</v>
       </c>
       <c r="E86">
-        <v>-0.02388076208462411</v>
+        <v>-0.005877400653947572</v>
       </c>
       <c r="F86">
-        <v>0.08541517059095606</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.003715935985989167</v>
+      </c>
+      <c r="G86">
+        <v>-0.09754197106594488</v>
+      </c>
+      <c r="H86">
+        <v>0.06325592435807802</v>
+      </c>
+      <c r="I86">
+        <v>-0.05517900261993118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01756199920704221</v>
+        <v>0.02543809585192118</v>
       </c>
       <c r="C87">
-        <v>0.03707464778948456</v>
+        <v>0.002503455864513894</v>
       </c>
       <c r="D87">
-        <v>0.0390775013565438</v>
+        <v>0.01200474300992309</v>
       </c>
       <c r="E87">
-        <v>0.03522913308297538</v>
+        <v>-0.001619153600603544</v>
       </c>
       <c r="F87">
-        <v>0.08716808748246486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.007461372100985048</v>
+      </c>
+      <c r="G87">
+        <v>-0.1022642889930609</v>
+      </c>
+      <c r="H87">
+        <v>-0.005667376318381282</v>
+      </c>
+      <c r="I87">
+        <v>-0.03304216414420234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01264616060621953</v>
+        <v>0.03200312426669628</v>
       </c>
       <c r="C88">
-        <v>0.01154518999089765</v>
+        <v>0.000232037591468057</v>
       </c>
       <c r="D88">
-        <v>0.003447605171370621</v>
+        <v>0.01020937865363</v>
       </c>
       <c r="E88">
-        <v>-0.02024782691043817</v>
+        <v>0.004673186700946933</v>
       </c>
       <c r="F88">
-        <v>0.01830168299454816</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01325126688496163</v>
+      </c>
+      <c r="G88">
+        <v>-0.003005792559116623</v>
+      </c>
+      <c r="H88">
+        <v>0.03808246280051908</v>
+      </c>
+      <c r="I88">
+        <v>-0.07746873238965155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.08623058421532999</v>
+        <v>0.1455785245481976</v>
       </c>
       <c r="C89">
-        <v>0.1239444114699493</v>
+        <v>0.02983901772852847</v>
       </c>
       <c r="D89">
-        <v>0.2377174825546402</v>
+        <v>0.3796408479242717</v>
       </c>
       <c r="E89">
-        <v>0.2248637410152799</v>
+        <v>-0.05775687140762906</v>
       </c>
       <c r="F89">
-        <v>0.01372035799616447</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.08305402415032563</v>
+      </c>
+      <c r="G89">
+        <v>0.003882899209512579</v>
+      </c>
+      <c r="H89">
+        <v>0.1026818735642334</v>
+      </c>
+      <c r="I89">
+        <v>9.340589581964712e-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.0817455315740644</v>
+        <v>0.1078322628690931</v>
       </c>
       <c r="C90">
-        <v>0.1280845439212091</v>
+        <v>0.02324471454937693</v>
       </c>
       <c r="D90">
-        <v>0.2527414099729531</v>
+        <v>0.3208471385735649</v>
       </c>
       <c r="E90">
-        <v>0.1682283275391837</v>
+        <v>-0.02960765426884443</v>
       </c>
       <c r="F90">
-        <v>0.008872403679143494</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.07797191775085296</v>
+      </c>
+      <c r="G90">
+        <v>0.03662854298726544</v>
+      </c>
+      <c r="H90">
+        <v>0.0601314957370049</v>
+      </c>
+      <c r="I90">
+        <v>0.01366789308633721</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2800339963882809</v>
+        <v>0.2729661962612541</v>
       </c>
       <c r="C91">
-        <v>0.07252045975335472</v>
+        <v>-0.1004273099107453</v>
       </c>
       <c r="D91">
-        <v>-0.09032371127904235</v>
+        <v>-0.1082009874159111</v>
       </c>
       <c r="E91">
-        <v>-0.06907933784383043</v>
+        <v>-0.02585152622143683</v>
       </c>
       <c r="F91">
-        <v>-0.2937250701807714</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1135054998232944</v>
+      </c>
+      <c r="G91">
+        <v>0.2439322005296582</v>
+      </c>
+      <c r="H91">
+        <v>0.04684517168195372</v>
+      </c>
+      <c r="I91">
+        <v>0.0424372313581625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1253077161695017</v>
+        <v>0.1864882781200461</v>
       </c>
       <c r="C92">
-        <v>0.1031820399197933</v>
+        <v>-0.04174929382503107</v>
       </c>
       <c r="D92">
-        <v>0.2689580724369691</v>
+        <v>0.329884542265409</v>
       </c>
       <c r="E92">
-        <v>0.1604550379252175</v>
+        <v>-0.01663770687621524</v>
       </c>
       <c r="F92">
-        <v>-0.01908724891724648</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.07262967502899423</v>
+      </c>
+      <c r="G92">
+        <v>0.09144742361999179</v>
+      </c>
+      <c r="H92">
+        <v>0.1823804086158161</v>
+      </c>
+      <c r="I92">
+        <v>-0.07124642700972703</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.07729172051611255</v>
+        <v>0.1352176282593121</v>
       </c>
       <c r="C93">
-        <v>0.1207591854071421</v>
+        <v>0.01940992075782604</v>
       </c>
       <c r="D93">
-        <v>0.3149404206562707</v>
+        <v>0.3857852660946532</v>
       </c>
       <c r="E93">
-        <v>0.230582800771582</v>
+        <v>-0.04601995041351602</v>
       </c>
       <c r="F93">
-        <v>-0.01692238704314787</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1231453803642545</v>
+      </c>
+      <c r="G93">
+        <v>0.04854463761012409</v>
+      </c>
+      <c r="H93">
+        <v>0.003484074729548528</v>
+      </c>
+      <c r="I93">
+        <v>0.01035568739358892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2602337491621579</v>
+        <v>0.2868516439070089</v>
       </c>
       <c r="C94">
-        <v>0.1104278546658747</v>
+        <v>-0.08471540590023369</v>
       </c>
       <c r="D94">
-        <v>-0.00543644054746228</v>
+        <v>-0.03909447810597876</v>
       </c>
       <c r="E94">
-        <v>-0.02218600894557331</v>
+        <v>-0.04398978252183063</v>
       </c>
       <c r="F94">
-        <v>-0.3550678185308898</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1405427628755126</v>
+      </c>
+      <c r="G94">
+        <v>0.2713226542371504</v>
+      </c>
+      <c r="H94">
+        <v>0.03594943110513943</v>
+      </c>
+      <c r="I94">
+        <v>0.1296664449366158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1609533354830817</v>
+        <v>0.1193333755968733</v>
       </c>
       <c r="C95">
-        <v>-0.01111959462937749</v>
+        <v>-0.05148118568749218</v>
       </c>
       <c r="D95">
-        <v>-0.1477708516144767</v>
+        <v>-0.06444127414914848</v>
       </c>
       <c r="E95">
-        <v>-0.01430234912324943</v>
+        <v>-0.08647053786720926</v>
       </c>
       <c r="F95">
-        <v>-0.01010143898744637</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.001134246037636446</v>
+      </c>
+      <c r="G95">
+        <v>-0.04884065247928256</v>
+      </c>
+      <c r="H95">
+        <v>0.1924889177488667</v>
+      </c>
+      <c r="I95">
+        <v>-0.4936306014410269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1838912272323444</v>
+        <v>0.1923836434699741</v>
       </c>
       <c r="C98">
-        <v>0.06788494795965505</v>
+        <v>-0.06020944904009809</v>
       </c>
       <c r="D98">
-        <v>0.01433137030377652</v>
+        <v>0.03431374027483753</v>
       </c>
       <c r="E98">
-        <v>0.1075117999709892</v>
+        <v>-0.07125699380857181</v>
       </c>
       <c r="F98">
-        <v>0.1485012654591262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01291821222038447</v>
+      </c>
+      <c r="G98">
+        <v>-0.2024926571394387</v>
+      </c>
+      <c r="H98">
+        <v>-0.3877588882232543</v>
+      </c>
+      <c r="I98">
+        <v>0.002767464288350727</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001114871334852061</v>
+        <v>0.01330644019285945</v>
       </c>
       <c r="C101">
-        <v>0.01687873906464709</v>
+        <v>0.00224351900326894</v>
       </c>
       <c r="D101">
-        <v>-0.05785421145092398</v>
+        <v>-0.02228823001945014</v>
       </c>
       <c r="E101">
-        <v>-0.05219522813709723</v>
+        <v>0.002755268083345563</v>
       </c>
       <c r="F101">
-        <v>0.04892532208714805</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03571962224461383</v>
+      </c>
+      <c r="G101">
+        <v>-0.08104545293166578</v>
+      </c>
+      <c r="H101">
+        <v>0.1208534299133238</v>
+      </c>
+      <c r="I101">
+        <v>0.07969476528929335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09145724911136156</v>
+        <v>0.1168261791755131</v>
       </c>
       <c r="C102">
-        <v>0.02279047062474537</v>
+        <v>-0.03190798433281922</v>
       </c>
       <c r="D102">
-        <v>-0.04151985513318369</v>
+        <v>-0.04842356202898663</v>
       </c>
       <c r="E102">
-        <v>-0.05641349993359546</v>
+        <v>-0.002219900169954087</v>
       </c>
       <c r="F102">
-        <v>-0.1065916254417708</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06040831128581636</v>
+      </c>
+      <c r="G102">
+        <v>0.1146714377558911</v>
+      </c>
+      <c r="H102">
+        <v>0.007916919045000933</v>
+      </c>
+      <c r="I102">
+        <v>0.009982296948252489</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02005064774486259</v>
+        <v>0.02597919861851086</v>
       </c>
       <c r="C103">
-        <v>0.008854918133740614</v>
+        <v>-0.007853185915130982</v>
       </c>
       <c r="D103">
-        <v>-0.003622548600897538</v>
+        <v>-0.009546301772437019</v>
       </c>
       <c r="E103">
-        <v>-0.006822650003541104</v>
+        <v>0.006195868532578364</v>
       </c>
       <c r="F103">
-        <v>-0.02587542502265522</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01444320062692907</v>
+      </c>
+      <c r="G103">
+        <v>0.01248844660600392</v>
+      </c>
+      <c r="H103">
+        <v>0.01729077218076682</v>
+      </c>
+      <c r="I103">
+        <v>-0.01160388825390468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2060376298018188</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9563791305345324</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06565256515888963</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.004881020244649683</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1610636806143232</v>
+      </c>
+      <c r="G104">
+        <v>0.04347529856707528</v>
+      </c>
+      <c r="H104">
+        <v>-0.006665507818963609</v>
+      </c>
+      <c r="I104">
+        <v>0.01450900207713976</v>
       </c>
     </row>
   </sheetData>
